--- a/ATOS.xlsx
+++ b/ATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C65A52-8999-4DA4-82AE-90AC0F4D4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E0A69-0053-400C-8907-1F05A80FCD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" xr2:uid="{2BD4BDDF-2A45-429B-B35A-0E35620204A1}"/>
+    <workbookView xWindow="38550" yWindow="1620" windowWidth="17980" windowHeight="13540" xr2:uid="{2BD4BDDF-2A45-429B-B35A-0E35620204A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Price</t>
   </si>
@@ -68,7 +68,16 @@
     <t>Breast Cancer</t>
   </si>
   <si>
-    <t>Q324</t>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Founded</t>
   </si>
 </sst>
 </file>
@@ -189,10 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -540,129 +548,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0190AFAF-0B79-4917-AA8F-47024D3B3286}">
-  <dimension ref="B2:M7"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
-        <v>125.801254</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="10">
+        <v>129.17000400000001</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <f>+L2*L3</f>
-        <v>192.47591862000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>109.7945034</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="11">
-        <v>74.8</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="10">
+        <v>65.116</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <f>+L4-L5+L6</f>
-        <v>117.67591862000002</v>
+        <v>44.678503399999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10">
+        <v>261.81900000000002</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="10">
+        <v>218.51</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
